--- a/data/input/absenteeism_data_34.xlsx
+++ b/data/input/absenteeism_data_34.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56185</v>
+        <v>68817</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur Melo</t>
+          <t>Daniela Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>8276.700000000001</v>
+        <v>7792.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71754</v>
+        <v>3392</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erick Souza</t>
+          <t>Sr. Gustavo Henrique Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,89 +519,89 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>8715.76</v>
+        <v>8205.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28831</v>
+        <v>51762</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruna Silveira</t>
+          <t>Mariane Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>6163.15</v>
+        <v>3415.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43093</v>
+        <v>85</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thomas da Costa</t>
+          <t>Davi Lucas Aragão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>9673.780000000001</v>
+        <v>10848.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86349</v>
+        <v>33484</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eloah Porto</t>
+          <t>Pedro Henrique Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>9205.690000000001</v>
+        <v>4094.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75799</v>
+        <v>12209</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Matheus Barbosa</t>
+          <t>Maria Eduarda Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,55 +635,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>4191.9</v>
+        <v>3150.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57251</v>
+        <v>24699</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Maria Cecília Oliveira</t>
+          <t>Rebeca Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10713.18</v>
+        <v>6736.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>44385</v>
+        <v>98463</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juliana Correia</t>
+          <t>Dr. Davi Luiz Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>3798.93</v>
+        <v>5715.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70574</v>
+        <v>38805</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Beatriz Martins</t>
+          <t>Carolina da Mota</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>7632.23</v>
+        <v>6720.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57942</v>
+        <v>38397</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Mariane Caldeira</t>
+          <t>Bruna da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>11761.95</v>
+        <v>7647.6</v>
       </c>
     </row>
   </sheetData>
